--- a/Lists/Job_list.xlsx
+++ b/Lists/Job_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coral\Documents\Universidad_2\Articulos\1. Articulo metodologia matlab code LTPAQ\LTPAQ_MATLAB_code\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA06A6-60C9-4585-9722-75F644A1B8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154315A5-5517-46AB-9353-48FE384EA9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E1112A5-35B4-4BB2-957C-5EE8D223495B}"/>
   </bookViews>
@@ -432,9 +432,6 @@
     <t>Working out (as part of job, e.g., police)</t>
   </si>
   <si>
-    <t>MET Level 2011</t>
-  </si>
-  <si>
     <t>Walking, pushing or pulling stroller with child or walking with children, 2.5 to 3.1 mph</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>Standing or lifting or kneeling or bending, (bartending, store clerk, filing, duplicating, librarian, xeroxing, assembling, hair dressing, standing and talking at work) light</t>
+  </si>
+  <si>
+    <t>MET Level</t>
   </si>
 </sst>
 </file>
@@ -859,7 +859,7 @@
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="85.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -870,13 +870,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4">
         <v>2.5</v>
@@ -1940,7 +1940,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="4">
         <v>3</v>
@@ -2270,7 +2270,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>

--- a/Lists/Job_list.xlsx
+++ b/Lists/Job_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coral\Documents\Universidad_2\Articulos\1. Articulo metodologia matlab code LTPAQ\LTPAQ_MATLAB_code\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154315A5-5517-46AB-9353-48FE384EA9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDFB68A-E3A7-457F-8130-939D1CA955BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5E1112A5-35B4-4BB2-957C-5EE8D223495B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E1112A5-35B4-4BB2-957C-5EE8D223495B}"/>
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <t>Description of Occupational Activity</t>
   </si>
   <si>
-    <t>Active workstation, treadmill desk, walking </t>
-  </si>
-  <si>
-    <t>Airline flight attendant </t>
-  </si>
-  <si>
     <t>Airplane repair</t>
   </si>
   <si>
@@ -59,392 +53,1165 @@
     <t>Automobile repair, light or moderate effort</t>
   </si>
   <si>
-    <t>Bakery, general, moderate effort</t>
-  </si>
-  <si>
-    <t>Bakery, light effort</t>
-  </si>
-  <si>
-    <t>Basketball, officiating</t>
-  </si>
-  <si>
-    <t>Bicycling, on the job</t>
-  </si>
-  <si>
-    <t>Bookbinding</t>
-  </si>
-  <si>
-    <t>Building road, directing traffic, standing</t>
-  </si>
-  <si>
-    <t>Building road, hauling debris, driving heavy machinery, coal mining, general</t>
-  </si>
-  <si>
-    <t>Butchering animal, large, vigorous effort</t>
-  </si>
-  <si>
-    <t>Butchering animals, small </t>
-  </si>
-  <si>
     <t>Camping involving standing, walking, sitting, light-to-moderate effort</t>
   </si>
   <si>
-    <t>Carpentry, general, hammering</t>
-  </si>
-  <si>
-    <t>Carrying, heavy loads, such as bricks or tools</t>
-  </si>
-  <si>
-    <t>Carrying, moderate loads up stairs, moving boxes (7-18kg)</t>
-  </si>
-  <si>
-    <t>Chop wood, split logs</t>
-  </si>
-  <si>
-    <t>Coaching, football, soccer, basketball, baseball, swimming, hockey, teach phys ed, softball officiating</t>
-  </si>
-  <si>
-    <t>Coal mining, general</t>
-  </si>
-  <si>
-    <t>Construction, outside, remodeling</t>
-  </si>
-  <si>
-    <t>Cook, Chef</t>
-  </si>
-  <si>
-    <t>Custodial work, chambermaid, hotel housekeeper, making bed, cleaning bathroom, pushing cart</t>
-  </si>
-  <si>
-    <t>Custodial work, general cleaning, mop/sweep, moderate effort</t>
-  </si>
-  <si>
-    <t>Custodial work, light effort (e.g., cleaning sink and toilet, dusting, vacuuming, light cleaning)</t>
-  </si>
-  <si>
-    <t>Dancing on job, (in classroom or day care)</t>
-  </si>
-  <si>
     <t>Drawing, writing, painting, standing</t>
   </si>
   <si>
-    <t>Driving delivery truck, taxi, shuttle bus, school bus</t>
-  </si>
-  <si>
-    <t>Elder care, disabled adult, only active periods, Home aide/personal care aide</t>
-  </si>
-  <si>
-    <t>Electrical work (also used for Plumbing)</t>
-  </si>
-  <si>
-    <t>Farming, baling hay, cleaning barn, poultry work, forking, vigorous effort</t>
-  </si>
-  <si>
-    <t>Farming, chasing cattle or working cattle (walking or horseback), moderate effort</t>
-  </si>
-  <si>
-    <t>Farming, driving tractor or harvester, cutting hay, light effort</t>
-  </si>
-  <si>
-    <t>Farming, feeding small animals, bathing dog</t>
-  </si>
-  <si>
-    <t>Farming, taking care of animals (grooming, brushing, shearing sheep, assisting with birthing, medical care, branding, feeding bigger animals like horses)</t>
-  </si>
-  <si>
-    <t>Firefighter,  (use for active work when responding to fire)
-general</t>
-  </si>
-  <si>
-    <t>Flying airplane or helicopter</t>
-  </si>
-  <si>
-    <t>Forestry, ax chopping, fast</t>
-  </si>
-  <si>
-    <t>Forestry, ax chopping, slow</t>
-  </si>
-  <si>
-    <t>Forestry, general</t>
-  </si>
-  <si>
-    <t>Forestry, sawing, power</t>
-  </si>
-  <si>
     <t>Furriery</t>
   </si>
   <si>
-    <t>Garbage collector, walking, dumping bins into truck</t>
-  </si>
-  <si>
-    <t>Gardening,  with heavy power tools, tilling a garden, chain saw</t>
-  </si>
-  <si>
-    <t>Gardening, clearing brush/land, undergrowth, or ground, hauling branches, wheelbarrow chores, vigorous effort</t>
-  </si>
-  <si>
-    <t>Gardening, digging, spading, filling garden, composting, laying sod</t>
-  </si>
-  <si>
-    <t>Gardening, general, moderate effort</t>
-  </si>
-  <si>
-    <t>Gardening, mow lawn general</t>
-  </si>
-  <si>
-    <t>Gardening, mowing lawn (riding mower), applying fertilizer or seeding a lawn</t>
-  </si>
-  <si>
-    <t>Gardening, picking flowers, fruits, vegetables, picking fruit off trees, riding snow blower, walking, applying fertilizer or seeding a lawn</t>
-  </si>
-  <si>
-    <t>Gardening, planting seedlings, shrubs, stooping, moderatre effort, planting trees walking, weeding</t>
-  </si>
-  <si>
-    <t>Gardening, trimming shrubs or trees, manual cutter, general, rake lawn, sack grass, leaves</t>
-  </si>
-  <si>
-    <t>Gardening, trimming shrubs or trees, power cutter, using leaf blower, edger</t>
-  </si>
-  <si>
-    <t>Gym classes, general</t>
-  </si>
-  <si>
-    <t>Hairstylist (e.g., plaiting hair, manicure, make-up artist)</t>
-  </si>
-  <si>
-    <t>Hiking</t>
-  </si>
-  <si>
-    <t>Home repair, general, light effort </t>
-  </si>
-  <si>
-    <t>Home repair, general, moderate effort </t>
-  </si>
-  <si>
-    <t>Home repair, general, vigorous effort </t>
-  </si>
-  <si>
-    <t>Horse grooming</t>
-  </si>
-  <si>
-    <t>Horseback riding, training horses, general</t>
-  </si>
-  <si>
-    <t>Kitchen activity, general, (e.g., cooking, washing dishes, cleaning up), moderate effort, making bed, changing linens</t>
-  </si>
-  <si>
-    <t>Kitchen maid </t>
-  </si>
-  <si>
-    <t>Laundry worker</t>
-  </si>
-  <si>
-    <t>Lifting, light/moderate</t>
-  </si>
-  <si>
-    <t>Lifting, moderate/heavy (Use Standing - moderate/heavy)</t>
-  </si>
-  <si>
-    <t>Loading, carrying or stacking wood, loading/unloading or carrying lumber</t>
-  </si>
-  <si>
-    <t>Loading/Unloading truck, part of a truck driver’s tasks (standing)</t>
-  </si>
-  <si>
-    <t>Locksmith</t>
-  </si>
-  <si>
-    <t>Machine tooling, operating lathe, welding, home power tools</t>
-  </si>
-  <si>
-    <t>Machine tooling, operating punch press, moderate effort</t>
-  </si>
-  <si>
-    <t>Massage therapist, standing</t>
-  </si>
-  <si>
-    <t>Moving, pushing heavy objects, 34kg or more (desks, moving van work, etc.)</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Manually enter METs</t>
-  </si>
-  <si>
-    <t>Playing with children, only active periods, moderate</t>
-  </si>
-  <si>
-    <t>Playing with children, only active periods, vigorous</t>
-  </si>
-  <si>
-    <t>Plumbing, (also used for Electrical work)</t>
-  </si>
-  <si>
-    <t>Police, directing traffic</t>
-  </si>
-  <si>
-    <t>Police, driving a squad car</t>
-  </si>
-  <si>
-    <t>Police, making an arrest</t>
-  </si>
-  <si>
-    <t>Police, riding in a squad car</t>
-  </si>
-  <si>
-    <t>Postal carrier, walking to deliver mail</t>
-  </si>
-  <si>
-    <t>Printing, paper industry worker, standing</t>
-  </si>
-  <si>
     <t>Roofing</t>
   </si>
   <si>
-    <t>Serving food, setting table, implied walking or standing</t>
-  </si>
-  <si>
-    <t>Shoe repair, general</t>
-  </si>
-  <si>
-    <t>Shoveling, 4,5-7kg/min, vigorous</t>
-  </si>
-  <si>
-    <t>Shoveling, digging ditches</t>
-  </si>
-  <si>
-    <t>Shoveling, less than 4,5kg/min, light, shovel snow by hand</t>
-  </si>
-  <si>
-    <t>Shoveling, more than 7kg/min, heavy</t>
-  </si>
-  <si>
-    <t>Student, sitting, in class, general, including note-taking or class discussion</t>
-  </si>
-  <si>
-    <t>Sitting, light office work, lab work, light hand tools, meetings, talking involved, light assembly/repair, typing, keyboarding, computer, driving to meetings, light office work in general</t>
-  </si>
-  <si>
-    <t>Sitting, moderate, heavy levers, riding mower/forklift, crane operation, driving heavy vehicle, truck, bus, tractor, operating heavy equipment, teaching stretching or yoga</t>
-  </si>
-  <si>
-    <t>Sitting, teaching stretching or yoga, or light effort exercise class</t>
-  </si>
-  <si>
     <t>Stair climbing, slow pace</t>
   </si>
   <si>
-    <t>Standing or lifting or kneeling or bending, assemble/repair heavy parts, welding, stocking, packing boxes for moving, auto repair, patient care (as in nursing), setting up chairs/furniture, light/moderate</t>
-  </si>
-  <si>
-    <t>Standing or lifting or kneeling or bending, assembling at a fast rate, lifting 23kg., moderate</t>
-  </si>
-  <si>
-    <t>Standing or lifting or kneeling or bending, lifting more than 23kg, masonry (concrete, contraction), painting, paper hanging, continuous lifting (4,5-9 kg) with limited walking/rest, moderate/heavy (Home power tools if PIL of 4)</t>
-  </si>
-  <si>
-    <t>Standing, light effort tasks (pump gas, change light bulb, etc.)</t>
-  </si>
-  <si>
-    <t>Standing, talking in person, on the phone, computer, or text messaging, light effort</t>
-  </si>
-  <si>
-    <t>Steel mill, general (i.e. hand rolling, merchant mill rolling)</t>
-  </si>
-  <si>
-    <t>Tailoring, cutting</t>
-  </si>
-  <si>
-    <t>Tailoring, general, machine sewing</t>
-  </si>
-  <si>
-    <t>Teaching exercise class (e.g., aerobic, water)</t>
-  </si>
-  <si>
-    <t>Tools, using heavy power tools, e.g. pneumatic tools, jackhammers, drills, etc.</t>
-  </si>
-  <si>
-    <t>Tools, using heavy tools, not power tools, e.g. shovel, pick, tunnel bar, spade</t>
-  </si>
-  <si>
     <t>Touring/traveling/vacation involving walking</t>
   </si>
   <si>
-    <t>Volunteer, cleaning church etc.</t>
-  </si>
-  <si>
-    <t>Volunteer, preparing food at church etc.</t>
-  </si>
-  <si>
-    <t>Walking briskly, carrying light objects &lt;5kg</t>
-  </si>
-  <si>
-    <t>Walking moderately, carrying light objects &lt;5kgs, marching, moderate speed, military, no pack</t>
-  </si>
-  <si>
-    <t>Walking or crawling on job, &lt;3km/h, strolling, very slow, in office or lab area</t>
-  </si>
-  <si>
-    <t>Walking or crawling on job, &lt;5,6km/h, not carrying anything, brisk walking</t>
-  </si>
-  <si>
-    <t>Walking or crawling on job, &lt;5km/h, not carrying anything, moderate</t>
-  </si>
-  <si>
-    <t>Walking or walking downstairs or standing, carrying objects about 11-22 kg, moderate, fencing for farmers &amp; ranchers</t>
-  </si>
-  <si>
-    <t>Walking or walking downstairs or standing, carrying objects about 22,6-33,5kg.</t>
-  </si>
-  <si>
-    <t>Walking or walking downstairs or standing, carrying objects about 34-45kg, heavy</t>
-  </si>
-  <si>
-    <t>Walking or walking downstairs or standing, carrying objects about 45kg and over</t>
-  </si>
-  <si>
-    <t>Walking slowly, carrying light objects &lt;11kg</t>
-  </si>
-  <si>
-    <t>Walking, 4km/h, slow speed, carrying heavy objects more than 11kg</t>
-  </si>
-  <si>
-    <t>Walking, downstairs</t>
-  </si>
-  <si>
-    <t>Walking, military pace, marching rapidly</t>
-  </si>
-  <si>
-    <t>Walking, pushing a wheelchair</t>
-  </si>
-  <si>
-    <t>Walking, upstairs, climbing up a ladder</t>
-  </si>
-  <si>
     <t>Washing and waxing car</t>
   </si>
   <si>
-    <t>Working in scene shop, theater actor, backstage employee</t>
-  </si>
-  <si>
-    <t>Working out (as part of job, e.g., police)</t>
-  </si>
-  <si>
-    <t>Walking, pushing or pulling stroller with child or walking with children, 2.5 to 3.1 mph</t>
-  </si>
-  <si>
-    <t>Child care, sitting/kneeling/standing - dressing, bathing, feeding, occ. lifting, light effort, general</t>
-  </si>
-  <si>
     <t>Code_JOB</t>
   </si>
   <si>
-    <t>Standing or lifting or kneeling or bending, (bartending, store clerk, filing, duplicating, librarian, xeroxing, assembling, hair dressing, standing and talking at work) light</t>
-  </si>
-  <si>
-    <t>MET Level</t>
+    <t>Multiple household tasks all at once, light effort</t>
+  </si>
+  <si>
+    <t>Multiple household tasks all at once, moderate effort</t>
+  </si>
+  <si>
+    <t>Multiple household tasks all at once, vigorous effort</t>
+  </si>
+  <si>
+    <t>Child care: sitting or kneeling, dressing, bathing, grooming, feeding, occasional lifting of child-light effort, general</t>
+  </si>
+  <si>
+    <t>Child care: standing, dressing, bathing, grooming, feeding, occasional lifting of child- light effort</t>
+  </si>
+  <si>
+    <t>Carpentry, general, workshop (Taylor Code 620)</t>
+  </si>
+  <si>
+    <t>Carpentry, outside house, (Taylor Code 640)</t>
+  </si>
+  <si>
+    <t>Carpentry, outside house, building a fence</t>
+  </si>
+  <si>
+    <t>Carpentry, finishing, varnishing, or refinishing cabinets or furniture</t>
+  </si>
+  <si>
+    <t>Carpentry, sawing hardwood, planing and drilling wood, moderate-to-vigorous effort</t>
+  </si>
+  <si>
+    <t>Carpentry, home remodeling tasks, moderate effort</t>
+  </si>
+  <si>
+    <t>Carpentry, home remodeling tasks, light effort</t>
+  </si>
+  <si>
+    <t>Caulking, chinking log cabin</t>
+  </si>
+  <si>
+    <t>Caulking, except log cabin</t>
+  </si>
+  <si>
+    <t>Cleaning gutters</t>
+  </si>
+  <si>
+    <t>Excavating garage</t>
+  </si>
+  <si>
+    <t>Hanging storm windows</t>
+  </si>
+  <si>
+    <t>Hanging sheet rock inside house</t>
+  </si>
+  <si>
+    <t>Hammering nails</t>
+  </si>
+  <si>
+    <t>Home repair, general, light effort</t>
+  </si>
+  <si>
+    <t>Home repair, general, moderate effort</t>
+  </si>
+  <si>
+    <t>Home repair, general, vigorous effort</t>
+  </si>
+  <si>
+    <t>Laying or removing carpet</t>
+  </si>
+  <si>
+    <t>Laying tile or linoleum</t>
+  </si>
+  <si>
+    <t>Repairing appliances</t>
+  </si>
+  <si>
+    <t>Painting, outside home (Taylor Code 650)</t>
+  </si>
+  <si>
+    <t>Painting inside house, wallpapering, scraping paint</t>
+  </si>
+  <si>
+    <t>Painting (Taylor Code 630)</t>
+  </si>
+  <si>
+    <t>Plumbing, general</t>
+  </si>
+  <si>
+    <t>Put on and removal of tarp – sailboat</t>
+  </si>
+  <si>
+    <t>Sanding floors with a power sander</t>
+  </si>
+  <si>
+    <t>Scraping and painting sailboat or powerboat</t>
+  </si>
+  <si>
+    <t>Sharpening tools</t>
+  </si>
+  <si>
+    <t>Spreading dirt with a shovel</t>
+  </si>
+  <si>
+    <t>Washing and waxing hull of sailboat or airplane</t>
+  </si>
+  <si>
+    <t>Washing fence, painting fence, moderate effort</t>
+  </si>
+  <si>
+    <t>Wiring, tapping-splicing</t>
+  </si>
+  <si>
+    <t>Child care, infant, general</t>
+  </si>
+  <si>
+    <t>Board game playing, sitting</t>
+  </si>
+  <si>
+    <t>Casino gambling, standing</t>
+  </si>
+  <si>
+    <t>Card playing, sitting</t>
+  </si>
+  <si>
+    <t>Chess game, sitting</t>
+  </si>
+  <si>
+    <t>Copying or filing documents, standing</t>
+  </si>
+  <si>
+    <t>Laughter, sitting</t>
+  </si>
+  <si>
+    <t>Sitting: reading, book, newspaper, magazine</t>
+  </si>
+  <si>
+    <t>sitting, typing or reading on a balance chair/stability ball</t>
+  </si>
+  <si>
+    <t>watching tv, stepping during commercial breaks</t>
+  </si>
+  <si>
+    <t>Sitting: writing, desk work, typing</t>
+  </si>
+  <si>
+    <t>Standing:  talking in person, on the phone, computer, text messaging, writing</t>
+  </si>
+  <si>
+    <t>Sitting: talking in person, on the phone, computer, or  text messaging, light effort</t>
+  </si>
+  <si>
+    <t>Sitting - studying, general, including reading and/or writing, light effort</t>
+  </si>
+  <si>
+    <t>Sitting - in class, general, including note-taking or class discussion</t>
+  </si>
+  <si>
+    <t>Standing - reading</t>
+  </si>
+  <si>
+    <t>Standing: miscellaneous</t>
+  </si>
+  <si>
+    <t>Sitting: arts and crafts, carving wood, weaving, spinning wool, light effort</t>
+  </si>
+  <si>
+    <t>Sitting: arts and crafts, carving wood, weaving, spinning wool, moderate effort</t>
+  </si>
+  <si>
+    <t>Standing: arts and crafts, sand painting, carving, weaving, light effort</t>
+  </si>
+  <si>
+    <t>Standing - arts and crafts, sand painting, carving, weaving, moderate effort</t>
+  </si>
+  <si>
+    <t>Standing - arts and crafts, sand painting, carving, weaving, vigorous effort</t>
+  </si>
+  <si>
+    <t>Retreat/family reunion activities involving sitting, relaxing, talking, eating</t>
+  </si>
+  <si>
+    <t>Retreat/family reunion activities involving playing games with children</t>
+  </si>
+  <si>
+    <t>Touring/traveling/vacation involving  riding in vehicle</t>
+  </si>
+  <si>
+    <t>Sitting at a sporting event, spectator</t>
+  </si>
+  <si>
+    <t>Accordion, sitting</t>
+  </si>
+  <si>
+    <t>Cello, sitting</t>
+  </si>
+  <si>
+    <t>Conducting orchestra, standing</t>
+  </si>
+  <si>
+    <t>Double bass, standing</t>
+  </si>
+  <si>
+    <t>Drums, sitting</t>
+  </si>
+  <si>
+    <t>Drumming (e.g., bongo, conga, benbe), moderate, sitting</t>
+  </si>
+  <si>
+    <t>Drumming, concert/live show</t>
+  </si>
+  <si>
+    <t>Flute, sitting</t>
+  </si>
+  <si>
+    <t>Horn, standing</t>
+  </si>
+  <si>
+    <t>Piano, sitting</t>
+  </si>
+  <si>
+    <t>Playing musical instruments, general</t>
+  </si>
+  <si>
+    <t>Organ, sitting</t>
+  </si>
+  <si>
+    <t>Trombone, standing</t>
+  </si>
+  <si>
+    <t>Trumpet, standing</t>
+  </si>
+  <si>
+    <t>Violin, sitting</t>
+  </si>
+  <si>
+    <t>Woodwind instruments, sitting</t>
+  </si>
+  <si>
+    <t>Brass instruments, sitting</t>
+  </si>
+  <si>
+    <t>Guitar, classical, folk, sitting</t>
+  </si>
+  <si>
+    <t>Guitar, rock and roll band, standing</t>
+  </si>
+  <si>
+    <t>Marching band, baton twirling, walking, moderate pace, general</t>
+  </si>
+  <si>
+    <t>Marching band, playing an instrument, walking, brisk pace, general</t>
+  </si>
+  <si>
+    <t>Marching band, drum major, walking</t>
+  </si>
+  <si>
+    <t>Active workstation, Pedal desk, balance chair/ball, General, light effort</t>
+  </si>
+  <si>
+    <t>Active workstation, Pedal desk (40 watts)</t>
+  </si>
+  <si>
+    <t>Active workstation, Pedal desk (80 watts)</t>
+  </si>
+  <si>
+    <t>Active workstation, treadmill desk, walking slowly 1.0 mph or less</t>
+  </si>
+  <si>
+    <t>Active workstation, treadmill desk, walking  1.0 - 2.0 mph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airline flight attendant </t>
+  </si>
+  <si>
+    <t>Apple Harvesting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery, general, moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery, light effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bookbinding </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building road, driving heavy machinery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building road, directing traffic, standing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carpentry, general, light effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carpentry, general, moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carpentry, general, heavy or vigorous effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrying heavy loads (e.g., bricks, tools) </t>
+  </si>
+  <si>
+    <t>Carrying moderate loads up stairs, moving  boxes, 25-49 lbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chambermaid, hotel housekeeper, making bed,  cleaning bathroom, pushing cart </t>
+  </si>
+  <si>
+    <t>Cleaning, vacuuming commercial space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining, drilling coal, rock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining, erecting supports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining, general </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coal mining, shoveling coal, by hand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook, chef </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction, outside, remodeling, new  structures (e.g., roof repair, miscellaneous) </t>
+  </si>
+  <si>
+    <t>Construction, rebar, bar bending/fixing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custodial work, light effort (e.g., cleaning sink  and toilet, dusting, vacuuming, light cleaning) </t>
+  </si>
+  <si>
+    <t>Custodial work, moderate effort (e.g., buffing  floors with electric buffer, feathering or  sweeping arena floors, mopping, taking out the  trash, vaccuming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical work (e.g., hook up wire, tapping splicing); plumbing moved to11516 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineer (e.g., mechanical or electrical) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, vigorous effort (e.g., baling hay,  cleaning barn), includes former code 11200 </t>
+  </si>
+  <si>
+    <t>Farming, moderate effort (e.g., feeding  animals, chasing cattle by walking and/or  horseback, spreading manure, harvesting crops)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, light effort, (e.g., cleaning animal  sheds, preparing animal feed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, driving tasks (e.g., driving tractor or  harvester) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, feeding small animals </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, feeding cattle, horses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, hauling water for animals, fetching  water from well or stream </t>
+  </si>
+  <si>
+    <t>Farming, taking care of animals (e.g.,  grooming, brushing, shearing sheep, assisting  with birthing, medical care, branding), general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, rice, planting, grain milling activities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, milking by hand, cleaning pails,  moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farming, milking by machine, light effort </t>
+  </si>
+  <si>
+    <t>Farming, milking Cows, full milking process, modern milking parlor with milking machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire fighter, general </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire fighter, rescue victim, automobile  accident, using pike pole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire fighter, raising and climbing ladder with  full gear, simulated fire suppression </t>
+  </si>
+  <si>
+    <t>Fire fighter, hauling hoses on ground,  carrying/hoisting equipment, breaking down  walls etc., wearing full gear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishing, commercial, light effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fishing, commercial, moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forestry, ax chopping, very fast, 1.25 kg axe,  51 blows/min, extremely vigorous effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forestry, ax chopping, slow, 1.25 kg axe, 19  blows/min, moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forestry, ax chopping, fast, 1.25 kg axe, 35  blows/min, vigorous effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forestry, moderate effort (e.g., sawing wood  with power saw, weeding, hoeing) </t>
+  </si>
+  <si>
+    <t>Forestry, vigorous effort (e.g., barking, felling,  or trimming trees, carrying or stacking logs,  planting seeds, sawing lumber by hand )</t>
+  </si>
+  <si>
+    <t>Garbage collector, walking, dumping bins into truck, street cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hairstylist (e.g., plaiting hair, manicure, make up artist) </t>
+  </si>
+  <si>
+    <t>Horse grooming, including feeding, cleaning  stalls, bathing, brushing, clipping, longeing and  exercising horses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horse, feeding, watering, cleaning stalls, implied walking and lifting loads </t>
+  </si>
+  <si>
+    <t>Horseback riding, working, cutting cows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horse racing, galloping, cantor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horse racing, Jockey, trotting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horse racing, Jockey, walking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitchen maid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawn keeper, yardwork, general </t>
+  </si>
+  <si>
+    <t>Lawn keeper, weeding, gas powered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laundry worker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locksmith </t>
+  </si>
+  <si>
+    <t>Machine tooling (e.g., machining, working  sheet metal, machine fitter, operating lathe,  welding) light-to-moderate effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine tooling, operating punch press,  moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manager, property </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual or unskilled labor, general, light effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual or unskilled labor, general, moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual or unskilled labor, general, vigorous effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masonary, concrete, moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masonry, concrete, light effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massage therapist, standing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mail carrier, walking to deliver mail </t>
+  </si>
+  <si>
+    <t>Mail delivery, motorbike</t>
+  </si>
+  <si>
+    <t>Mail delivery, Electronically Assisted Bicycle</t>
+  </si>
+  <si>
+    <t>Moving, carrying or pushing heavy objects, 75  lbs or more, only active time (e.g., desks,  moving van work)</t>
+  </si>
+  <si>
+    <t>Mining, general services, drilling, mining support jobs (mechanical, welding, pipe installation, general construction)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skindiving or SCUBA diving as a frogman,  Navy Seal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating heavy duty equipment, automated,  not driving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange grove work, picking fruit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting, house, furniture, moderate effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plumbing activities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing, paper industry worker, standing </t>
+  </si>
+  <si>
+    <t>Police Officer, Walking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police, directing traffic, standing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police, driving a squad car, sitting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police, riding in a squad car, sitting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police, making an arrest, standing </t>
+  </si>
+  <si>
+    <t>Counter terrorism maneuvers, clearing building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoe repair, general </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoveling, digging ditches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoveling, more than 16 lbs/minute, deep  digging, vigorous effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoveling, less than 10 lbs/minute, moderate  effort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shoveling, 10 to 15 lbs/minute, vigorous effort </t>
+  </si>
+  <si>
+    <t>Sitting tasks, light effort (e.g., office work,  chemistry lab work, light  assembly repair, watch repair, reading, desk  work)</t>
+  </si>
+  <si>
+    <t>Sitting, computer work</t>
+  </si>
+  <si>
+    <t>Standing workstation, typing, computer work</t>
+  </si>
+  <si>
+    <t>Sitting meetings, light effort, general, and/or with talking involved (e.g., eating at a business meeting)</t>
+  </si>
+  <si>
+    <t>Sitting tasks, moderate effort (e.g. pushing  heavy levers, riding mower/forklift, crane  operation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitting, teaching stretching or yoga, or light  effort exercise classes </t>
+  </si>
+  <si>
+    <t>Standing tasks, light effort (e.g., bartending,  store clerk, assembling, filing, duplicating,  librarian, putting up a Christmas tree, standing and talking at work, changing clothes when teaching physical education)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing, light/moderate effort (e.g., assemble/repair heavy parts, welding, stocking  parts, auto repair, packing boxes, nursing patient care, laundry) </t>
+  </si>
+  <si>
+    <t>Standing, moderate effort, lifting items  continuously, 10 – 20 lbs, with limited walking  or resting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing, moderate effort, intermittent lifting  50 lbs, hitch or twisting ropes </t>
+  </si>
+  <si>
+    <t>Standing, moderate/heavy tasks (e.g., lifting  more than 50 lbs, masonry, painting, paper  hanging)</t>
+  </si>
+  <si>
+    <t>Patient care, healthcare activites</t>
+  </si>
+  <si>
+    <t>Patient care, room cleaning/preperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steel mill, moderate effort (e.g., fettling,  forging, tipping molds) </t>
+  </si>
+  <si>
+    <t>Steel mill, vigorous effort (e.g., hand rolling,  merchant mill rolling, removing slag, tending  furnace)</t>
+  </si>
+  <si>
+    <t>Tailoring, cutting fabric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tailoring, general </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tailoring, hand sewing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tailoring, machine sewing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tailoring, pressing </t>
+  </si>
+  <si>
+    <t>Tailoring, weaving, light effort (e.g., finishing operations, washing, dyeing, inspecting cloth, counting yards, paperwork)</t>
+  </si>
+  <si>
+    <t>Tailoring, weaving, moderate effort (e.g.,  spinning and weaving operations, delivering  boxes of yarn to spinners, loading of warp  bean, pinwinding, conewinding, warping, cloth  clutting)</t>
+  </si>
+  <si>
+    <t>Truck driving, loading and unloading truck,  tying down load, standing, walking and  carrying heavy loads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truck driving, delivery truck, taxi, shuttlebus,  school bus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typing, electric, manual or computer </t>
+  </si>
+  <si>
+    <t>Using heavy power tools such as pneumatic  tools (e.g., jackhammers, drills, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using heavy tools (not power) such as shovel,  pick, tunnel bar, spade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking on job, less than 2.0 mph, very slow  speed, in office or lab area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking on job, 2.8 to 3.4 mph, in office, moderate  speed, not carrying anything </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking on job, 3.5 to 3.9 mph, in office, brisk speed,  not carrying anything </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking on job, 2.5 mph, slow speed, carrying  light objects less than 25 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking, gathering things at work, ready to  leave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking, 2.5 mph, slow speed, carrying heavy  objects more than 25 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking, 3.0 mph, moderately and carrying  light objects less than 25 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking, pushing a wheelchair </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking, 3.5 mph, briskly and carrying objects  less than 25 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking or walk downstairs or standing,  carrying objects about 25 to 49 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking or walk downstairs or standing,  carrying objects about 50 to 74 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking or walk downstairs or standing,  carrying objects about 75 to 99 lbs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walking or walk downstairs or standing,  carrying objects about 100 lbs or more </t>
+  </si>
+  <si>
+    <t>Warehouse/Shipping Center, Loading/Unloading boxes</t>
+  </si>
+  <si>
+    <t>Warehouse/Shipping Center, Moving boxes (~5kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working in scene shop, theater actor, backstage  employee </t>
+  </si>
+  <si>
+    <t>Soldiers, military marching, unloaded 1.5-2.5 mph</t>
+  </si>
+  <si>
+    <t>Soldiers, military marching, 1.5-2.5 mph, 10 to 30 kg load</t>
+  </si>
+  <si>
+    <t>Airborn Shuffle, 2.5 to 3.5 mph, 20-30 kg load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soldiers, military loaded marching, varying terrain, 25-40 kg load </t>
+  </si>
+  <si>
+    <t>Soldiers, walking, 2.8 mph, 5% grade, up to 21.5 kg load</t>
+  </si>
+  <si>
+    <t>Soldiers, walking,  2.8 mph, 10% grade, up to 21.5 kg load</t>
+  </si>
+  <si>
+    <t>Bicycling for transportation, light effort</t>
+  </si>
+  <si>
+    <t>Bicycling for transportation, high effort</t>
+  </si>
+  <si>
+    <t>E-bike (electrically assisted) for transportation</t>
+  </si>
+  <si>
+    <t>Automobile or light truck (not a semi) driving</t>
+  </si>
+  <si>
+    <t>Riding in a car or truck</t>
+  </si>
+  <si>
+    <t>Riding in a bus or train</t>
+  </si>
+  <si>
+    <t>Flying airplane or helicoptor</t>
+  </si>
+  <si>
+    <t>Motor scooter, motorcycle</t>
+  </si>
+  <si>
+    <t>Pulling rickshaw</t>
+  </si>
+  <si>
+    <t>Pushing plane in and out of hangar</t>
+  </si>
+  <si>
+    <t>Truck, semi, tractor, ≥1 ton, or bus, driving</t>
+  </si>
+  <si>
+    <t>Walking for transportation, 2.8-3.2 mph, level, moderate pace, firm surface</t>
+  </si>
+  <si>
+    <t>Backpacking (Taylor Code 050)</t>
+  </si>
+  <si>
+    <t>Walking with a day pack, level ground, assumed in the city</t>
+  </si>
+  <si>
+    <t>Backpacking,  hiking with a daypack, organized walking with daypack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carrying 5 to 14 lb (2.3 to 6.4 kg) load (e.g. suitcase, boxes, groceries), level ground, moderate pace </t>
+  </si>
+  <si>
+    <t>Carrying 15 - 155 lb (6.8 - 70.4 kg) load (e.g. suitcase, boxes, furniture), level ground or downstairs, slow pace</t>
+  </si>
+  <si>
+    <t>Carrying 50 to 150 pound load (e.g., equine or bovine feed, fence pipes, furniture), level ground, moderate pace</t>
+  </si>
+  <si>
+    <t>Carrying ~10 lb child, slow walking</t>
+  </si>
+  <si>
+    <t>Carrying load upstairs, general</t>
+  </si>
+  <si>
+    <t>Carrying load, 1 to 15 lb load, upstairs</t>
+  </si>
+  <si>
+    <t>Carrying load, 16 to 24 lb load, upstairs</t>
+  </si>
+  <si>
+    <t>Carrying load, 25 to 49 lb load, upstairs</t>
+  </si>
+  <si>
+    <t>Carrying load, 50 to 74 lb load, upstairs</t>
+  </si>
+  <si>
+    <t>Carrying load, &gt;74 lb load, upstairs</t>
+  </si>
+  <si>
+    <t>Loading  and/or unloading a car, implied walking</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, 5 to 20% grade, very slow pace</t>
+  </si>
+  <si>
+    <t>Climbing hills, 15-50 lb load, 1 to 2% grade, slow pace</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, 1 to 5% grade, moderate-to-brisk pace</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, 6 to 10% grade, moderate-to-brisk pace</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, 11 to 20% grade, slow-to-moderate pace</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, 4.0 to 5.0 mph, 3 to 5% grade, very fast pace</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, steep grade (30%), slow pace (less than 1.2 mph)</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, very steep grade (30-40%), 1.2 to 1.8 mph</t>
+  </si>
+  <si>
+    <t>Climbing hills, no load, steep grade (10-40%), 1.8 to 5.0 mph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climbing hills, 10 to 20 lb load, 5 to 10% grade, moderate </t>
+  </si>
+  <si>
+    <t>Climbing hills, 21 to 40 lb load, 3 to 10% grade, moderate-to-brisk pace</t>
+  </si>
+  <si>
+    <t>Climbing hills, 20+ pound load, 5 to 20% grade, moderate to brisk pace</t>
+  </si>
+  <si>
+    <t>Descending stairs</t>
+  </si>
+  <si>
+    <t>Hauling water, head hauling, walking on flat surface</t>
+  </si>
+  <si>
+    <t>Hiking, cross country (Taylor Code 040)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiking slowly or ambling through fields and hillsides, no load </t>
+  </si>
+  <si>
+    <t>Hiking or walking at a normal pace through fields and hillsides, no load</t>
+  </si>
+  <si>
+    <t>Bird watching, walking and stopping</t>
+  </si>
+  <si>
+    <t>Marching, moderate speed, military, no pack</t>
+  </si>
+  <si>
+    <t>Marching rapidly, military, no pack</t>
+  </si>
+  <si>
+    <t>Pushing or pulling stroller with child or walking with children, 2.5 to 3.1 mph</t>
+  </si>
+  <si>
+    <t>Pushing a wheelchair, non-occupational</t>
+  </si>
+  <si>
+    <t>Race walking</t>
+  </si>
+  <si>
+    <t>Stair climbing, using or climbing up ladder (Taylor Code 030)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stair climbing, general </t>
+  </si>
+  <si>
+    <t>Stair climbing, fast pace, one step at a time</t>
+  </si>
+  <si>
+    <t>Stair climbing, two steps at a time</t>
+  </si>
+  <si>
+    <t>Stair climbing, ascending and descending stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using crutches, level ground, general </t>
+  </si>
+  <si>
+    <t>Using crutches, fast pace</t>
+  </si>
+  <si>
+    <t>Using medical knee scooter</t>
+  </si>
+  <si>
+    <t>Walking, household</t>
+  </si>
+  <si>
+    <t>Walking, less than 2.0 mph, level, strolling, very slow</t>
+  </si>
+  <si>
+    <t>Walking, 2.0 to 2.4 mph, level, slow pace, firm surface</t>
+  </si>
+  <si>
+    <t>Walking for pleasure (Taylor Code 010)</t>
+  </si>
+  <si>
+    <t>Walking from house to car or bus, from car or bus to go places, from car or bus to and from the worksite</t>
+  </si>
+  <si>
+    <t>Walking to neighbor’s house or family’s house for social reasons</t>
+  </si>
+  <si>
+    <t>Walking the dog</t>
+  </si>
+  <si>
+    <t>Walking, 2.5 mph, firm, level surface</t>
+  </si>
+  <si>
+    <t>Walking, 2.5 mph, downhill</t>
+  </si>
+  <si>
+    <t>Walking, 2.8 to 3.4 mph, level, moderate pace, firm surface</t>
+  </si>
+  <si>
+    <t>Walking, 3.5 to 3.9 mph, level, brisk, firm surface, walking for exercise</t>
+  </si>
+  <si>
+    <t>Walking, 4.0 to 4.4 mph (6.4 to 7.0 km/h), level, firm surface, very brisk pace</t>
+  </si>
+  <si>
+    <t>Walking, 4.5 to 4.9 mph, level, firm surface, very, very brisk</t>
+  </si>
+  <si>
+    <t>Walking, 5.0 to 5.5 mph (8.8 to 8.9 km/h), level, firm surface</t>
+  </si>
+  <si>
+    <t>Walking, for pleasure, work break (Taylor Code xxx)</t>
+  </si>
+  <si>
+    <t>Walking, self-selected speed, indoor track or outdoors, firm surface</t>
+  </si>
+  <si>
+    <t>Walking, grass track</t>
+  </si>
+  <si>
+    <t>Walking, normal pace, plowed field or sand</t>
+  </si>
+  <si>
+    <t>Walking, to work or class (Taylor Code 015)</t>
+  </si>
+  <si>
+    <t>Walking, to and from an outhouse</t>
+  </si>
+  <si>
+    <t>Walking, for exercise, 2.5 to 3.5 mph (4.0 to 5.6 km/h), with ski poles, Nordic walking, level, moderate pace</t>
+  </si>
+  <si>
+    <t>Walking, for exercise, 3.6 to 4.4 mph (5.8 to 7.1 km/h), with ski poles, Nordic walking, level, moderate pace</t>
+  </si>
+  <si>
+    <t>Walking, for exercise, 4.5 to 5.0 mph, with ski poles, Nordic walking, level, fast pace</t>
+  </si>
+  <si>
+    <t>Walking, for exercise, with ski poles, Nordic walking, uphill, moderate pace</t>
+  </si>
+  <si>
+    <t>Walking, for exercise, with ski poles, Nordic walking, level ground, carrying 20 to 30 lb load (9.0 to 15.0 kg)</t>
+  </si>
+  <si>
+    <t>Walking, for exercise, with ski poles, Nordic walking, uphill, carrying 20 to 30 lb load (9.0 to 15.0 kg)</t>
+  </si>
+  <si>
+    <t>Walking, backward, 3.5 mph, level</t>
+  </si>
+  <si>
+    <t>Walking, backward, 3.5 mph, uphill, 5% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 2.0 to 2.4 mph (3.2 to 3.9 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 2.5 to 2.9 mph (4.0 to 4.7 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, Teabag walk, Monty Python Ministry of Silly Walks</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 3.0 to 3.4 mph (4.8 to 5.5 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, Putey walk, Monty Python Ministry of Silly Walks</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 3.5 to 3.9 mph (5.6 to 6.3 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 4.0 to 4.4 mph (6.4 to 7.1 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, less than 1.0 mph, 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 4.5 to 4.9 mph (7.2 to 7.9 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 1.0 mph, 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 5.0 to 5.5 mph (8.0 to 8.9 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 1.2 to 1.9 mph, 0% grade (1.9 to 3.0 km/h)</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, downhill (-3% to -12% grade), 2.8 to 3.1 mph</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, downhill (-5% to -25% grade), 2.8 mph, with Nordic Poles</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 2.5 mph, 0% grade, 5 to 20 degrees C, 40 lb (18.2 kg) load</t>
+  </si>
+  <si>
+    <t>Walking, treadmill, 2.5 mph, 0% grade, -10 to 0 degrees C, 40 lb (18.2 kg) load</t>
+  </si>
+  <si>
+    <t>Walking, Curved treadmill, 3.0 to 5.0 mph, brisk pace</t>
+  </si>
+  <si>
+    <t>Walking treadmill, backwards, 2.5 mph, +10% grade</t>
+  </si>
+  <si>
+    <t>Walking, with a walker or step-to gait on treadmill, 0.7 mph (1.1 km/h), 0% grade</t>
+  </si>
+  <si>
+    <t>Soldiers, walking,  2.8 mph, 15% grade, up to 21.5 kg load</t>
+  </si>
+  <si>
+    <t>Military activities, arterial field preparation, digging defensive positions</t>
+  </si>
+  <si>
+    <t>Sitting in church, in service, attending a ceremony, sitting quietly</t>
+  </si>
+  <si>
+    <t>Sitting, playing an instrument at church</t>
+  </si>
+  <si>
+    <t>Sitting in church, talking or singing, attending a ceremony, sitting, active participation</t>
+  </si>
+  <si>
+    <t>Sitting, reading religious materials at home</t>
+  </si>
+  <si>
+    <t>Standing quietly in church, attending a ceremony</t>
+  </si>
+  <si>
+    <t>Standing, singing in church, attending a ceremony, standing, active participation</t>
+  </si>
+  <si>
+    <t>Kneeling in church or at home, praying</t>
+  </si>
+  <si>
+    <t>Standing, talking in church</t>
+  </si>
+  <si>
+    <t>Walking in church</t>
+  </si>
+  <si>
+    <t>Walking, less than 2.0 mph, very slow</t>
+  </si>
+  <si>
+    <t>Walking, 2.8 to 3.4 mph, moderate speed, not carrying anything</t>
+  </si>
+  <si>
+    <t>Walking, 3.5 to 3.9 mph, brisk speed, not carrying anything</t>
+  </si>
+  <si>
+    <t>Walk/stand combination for religious purposes, usher</t>
+  </si>
+  <si>
+    <t>Praise with dance or run, spiritual dancing in church</t>
+  </si>
+  <si>
+    <t>Serving food at church</t>
+  </si>
+  <si>
+    <t>Preparing food at church</t>
+  </si>
+  <si>
+    <t>Washing dishes, cleaning kitchen at church</t>
+  </si>
+  <si>
+    <t>Eating at church</t>
+  </si>
+  <si>
+    <t>Eating/talking at church or standing eating, American Indian Feast days</t>
+  </si>
+  <si>
+    <t>Cleaning church</t>
+  </si>
+  <si>
+    <t>General yard work at church</t>
+  </si>
+  <si>
+    <t>Standing , moderate effort (e.g., lifting heavy objects, assembling at fast rate)</t>
+  </si>
+  <si>
+    <t>Standing, moderate-to-heavy effort, manual labor, lifting ≥ 50 lbs, heavy maintenance</t>
+  </si>
+  <si>
+    <t>Typing, electric, manual, or computer</t>
+  </si>
+  <si>
+    <t>sitting, meeting, general, and/or with talking involved (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>sitting, light office work, in general (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>sitting, moderate work (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>standing, light work (filing, talking, assembling) (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walk/run play with children, moderate, only active periods (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walk/run play with children, vigorous, only active periods (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>standing, light/moderate work (e.g., pack boxes, assemble/repair, set up chairs/furniture) (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>standing, moderate (e.g., lifting 50 lbs., assembling at fast rate) (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>standing, moderate/heavy work (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>typing, electric, manual, or computer (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walking, less than 2.0 mph, very slow (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walking, 2.8 to 3.4 mph, moderate speed, not carrying anything (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walking, 3.5 to 3.9 mph, brisk speed, not carrying anything (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walking, 2.5 mph slowly and carrying objects less than 25 pounds (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walking, 3.0 mph moderately and carrying objects less than 25 pounds, pushing something (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walking, 3.5 mph, briskly and carrying objects less than 25 pounds (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>walk/stand combination, for volunteer purposes (Volunteer Activities)</t>
+  </si>
+  <si>
+    <t>METs_Value</t>
   </si>
 </sst>
 </file>
@@ -856,7 +1623,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F87D2CC-1279-4B3D-A541-6B6B385B2E95}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -865,158 +1632,159 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="85.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5025</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>5026</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>5027</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5185</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>5186</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>6010</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6020</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>6030</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" s="4">
-        <v>7</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>6040</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>6050</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4">
-        <v>2.2999999999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>6052</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
-        <v>2</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>6060</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
-        <v>6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>6070</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4">
         <v>6</v>
@@ -1024,560 +1792,560 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>6072</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>6074</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>6080</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>6090</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>6100</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>6110</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>6120</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4">
-        <v>6.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>6122</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C22" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>6124</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4">
-        <v>5.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>6126</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C24" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>6127</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>6128</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>6130</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>6140</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C28" s="4">
-        <v>2.2999999999999998</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>6144</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C29" s="4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>6150</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C30" s="5">
-        <v>1.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>6160</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5">
-        <v>2</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>6165</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C32" s="4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>6167</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C33" s="4">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>6170</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C34" s="4">
-        <v>7.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>6180</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C35" s="4">
-        <v>4.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>6190</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C36" s="4">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>6200</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C37" s="4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>6205</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>6210</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C39" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>6220</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C40" s="5">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>6225</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C41" s="4">
-        <v>17.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>6230</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>6240</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C43" s="4">
-        <v>8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>8184</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C44" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>9000</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>9005</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>9010</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C47" s="4">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>9013</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C48" s="4">
-        <v>6.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>9015</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C49" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>9020</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>9025</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4">
-        <v>5.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>9030</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C52" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>9034</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C53" s="4">
-        <v>3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>9036</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C54" s="4">
-        <v>4.4000000000000004</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>9040</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C55" s="4">
-        <v>4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>9050</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>9055</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C57" s="4">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>9060</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C58" s="4">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>9065</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C59" s="4">
-        <v>6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>9070</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4">
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>9071</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>9075</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C62" s="4">
-        <v>6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>9080</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>7.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>9085</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>9090</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C65" s="4">
         <v>3.3</v>
@@ -1585,461 +2353,461 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>9095</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>9100</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>9101</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C68" s="4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>9105</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4">
-        <v>4.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>9106</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C70" s="4">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>9110</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C71" s="4">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>9115</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C72" s="4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>10010</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C73" s="4">
-        <v>3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>10020</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C74" s="5">
-        <v>5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>10030</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C75" s="4">
-        <v>4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>10035</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C76" s="4">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>10040</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="C77" s="4">
+        <v>3.8</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>10045</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C78" s="4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>10048</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C79" s="4">
-        <v>5.8</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>10050</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C80" s="4">
-        <v>3.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>10060</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C81" s="4">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>10070</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C82" s="4">
-        <v>2.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>10074</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C83" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>10077</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C84" s="4">
-        <v>1.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>10080</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C85" s="4">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>10090</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C86" s="4">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>10100</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C87" s="4">
-        <v>6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>10110</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C88" s="4">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>10115</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C89" s="4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>10120</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C90" s="4">
-        <v>6.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>10125</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C91" s="4">
-        <v>7.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>10130</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C92" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>10131</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C93" s="4">
-        <v>8.8000000000000007</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>10135</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C94" s="4">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>11000</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C95" s="4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>11001</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C96" s="4">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>11002</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C97" s="4">
-        <v>4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>11003</v>
       </c>
       <c r="B98" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="C98" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>11004</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C99" s="4">
-        <v>3</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>11006</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C100" s="4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>11008</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C101" s="4">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>11010</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C102" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>11015</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C103" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>11020</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C104" s="4">
-        <v>8.3000000000000007</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>11030</v>
       </c>
       <c r="B105" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C105" s="4">
-        <v>1.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>11035</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C106" s="4">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>11038</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C107" s="4">
         <v>2.5</v>
@@ -2047,32 +2815,32 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>11040</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C108" s="4">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>11042</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C109" s="4">
-        <v>6.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>11050</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C110" s="4">
         <v>8</v>
@@ -2080,244 +2848,3071 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>11060</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C111" s="4">
-        <v>3.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>11070</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C112" s="4">
-        <v>3.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>11072</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C113" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>11080</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C114" s="4">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>11090</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C115" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>11100</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C116" s="4">
-        <v>2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>11110</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C117" s="4">
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>11115</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C118" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>11120</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C119" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>11124</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C120" s="4">
-        <v>6.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>11125</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C121" s="4">
-        <v>7.5</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>11126</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C122" s="4">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>11130</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C123" s="4">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>11135</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C124" s="4">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>11145</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C125" s="4">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>11146</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C126" s="4">
-        <v>8</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>11147</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C127" s="4">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>11170</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
       </c>
       <c r="C128" s="4">
-        <v>4</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>11180</v>
       </c>
       <c r="B129" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C129" s="4">
-        <v>8</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>11190</v>
       </c>
       <c r="B130" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C130" s="4">
-        <v>2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>11191</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C131" s="4">
-        <v>3</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>11192</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C132" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>11195</v>
+      </c>
+      <c r="B133" t="s">
+        <v>135</v>
+      </c>
+      <c r="C133" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>11210</v>
+      </c>
+      <c r="B134" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>11220</v>
+      </c>
+      <c r="B135" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>11222</v>
+      </c>
+      <c r="B136" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>11240</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+      <c r="C137" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>11244</v>
+      </c>
+      <c r="B138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>11245</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>11246</v>
+      </c>
+      <c r="B140" t="s">
+        <v>142</v>
+      </c>
+      <c r="C140" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>11247</v>
+      </c>
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>11248</v>
+      </c>
+      <c r="B142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>11250</v>
+      </c>
+      <c r="B143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>11260</v>
+      </c>
+      <c r="B144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>11262</v>
+      </c>
+      <c r="B145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>11264</v>
+      </c>
+      <c r="B146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>11266</v>
+      </c>
+      <c r="B147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C147" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>11370</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>11375</v>
+      </c>
+      <c r="B149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>11378</v>
+      </c>
+      <c r="B150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>11380</v>
+      </c>
+      <c r="B151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151" s="4">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>11381</v>
+      </c>
+      <c r="B152" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>11383</v>
+      </c>
+      <c r="B153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>11390</v>
+      </c>
+      <c r="B154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>11400</v>
+      </c>
+      <c r="B155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>11410</v>
+      </c>
+      <c r="B156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>11413</v>
+      </c>
+      <c r="B157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>11415</v>
+      </c>
+      <c r="B158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>11416</v>
+      </c>
+      <c r="B159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>11418</v>
+      </c>
+      <c r="B160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>11420</v>
+      </c>
+      <c r="B161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>11430</v>
+      </c>
+      <c r="B162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>11450</v>
+      </c>
+      <c r="B163" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>11472</v>
+      </c>
+      <c r="B164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>11475</v>
+      </c>
+      <c r="B165" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>11476</v>
+      </c>
+      <c r="B166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>11477</v>
+      </c>
+      <c r="B167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>11480</v>
+      </c>
+      <c r="B168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>11482</v>
+      </c>
+      <c r="B169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>11485</v>
+      </c>
+      <c r="B170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170" s="4">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>11486</v>
+      </c>
+      <c r="B171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>11487</v>
+      </c>
+      <c r="B172" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>11488</v>
+      </c>
+      <c r="B173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>11490</v>
+      </c>
+      <c r="B174" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>11493</v>
+      </c>
+      <c r="B175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <v>11495</v>
+      </c>
+      <c r="B176" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <v>11500</v>
+      </c>
+      <c r="B177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <v>11510</v>
+      </c>
+      <c r="B178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <v>11514</v>
+      </c>
+      <c r="B179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <v>11516</v>
+      </c>
+      <c r="B180" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <v>11520</v>
+      </c>
+      <c r="B181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>11524</v>
+      </c>
+      <c r="B182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>11525</v>
+      </c>
+      <c r="B183" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>11526</v>
+      </c>
+      <c r="B184" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>11527</v>
+      </c>
+      <c r="B185" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>11528</v>
+      </c>
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>11529</v>
+      </c>
+      <c r="B187" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>11530</v>
+      </c>
+      <c r="B188" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>11540</v>
+      </c>
+      <c r="B189" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189" s="4">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>11550</v>
+      </c>
+      <c r="B190" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>11560</v>
+      </c>
+      <c r="B191" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>11570</v>
+      </c>
+      <c r="B192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>11580</v>
+      </c>
+      <c r="B193" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <v>11582</v>
+      </c>
+      <c r="B194" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <v>11583</v>
+      </c>
+      <c r="B195" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <v>11585</v>
+      </c>
+      <c r="B196" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <v>11590</v>
+      </c>
+      <c r="B197" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <v>11593</v>
+      </c>
+      <c r="B198" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <v>11600</v>
+      </c>
+      <c r="B199" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <v>11610</v>
+      </c>
+      <c r="B200" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <v>11615</v>
+      </c>
+      <c r="B201" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <v>11620</v>
+      </c>
+      <c r="B202" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <v>11630</v>
+      </c>
+      <c r="B203" t="s">
+        <v>204</v>
+      </c>
+      <c r="C203" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <v>11650</v>
+      </c>
+      <c r="B204" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <v>11660</v>
+      </c>
+      <c r="B205" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <v>11708</v>
+      </c>
+      <c r="B206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <v>11710</v>
+      </c>
+      <c r="B207" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <v>11720</v>
+      </c>
+      <c r="B208" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <v>11730</v>
+      </c>
+      <c r="B209" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <v>11740</v>
+      </c>
+      <c r="B210" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <v>11750</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <v>11760</v>
+      </c>
+      <c r="B212" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <v>11763</v>
+      </c>
+      <c r="B213" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <v>11765</v>
+      </c>
+      <c r="B214" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <v>11766</v>
+      </c>
+      <c r="B215" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <v>11767</v>
+      </c>
+      <c r="B216" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <v>11770</v>
+      </c>
+      <c r="B217" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <v>11780</v>
+      </c>
+      <c r="B218" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <v>11790</v>
+      </c>
+      <c r="B219" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <v>11791</v>
+      </c>
+      <c r="B220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <v>11792</v>
+      </c>
+      <c r="B221" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <v>11793</v>
+      </c>
+      <c r="B222" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <v>11795</v>
+      </c>
+      <c r="B223" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <v>11796</v>
+      </c>
+      <c r="B224" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <v>11797</v>
+      </c>
+      <c r="B225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <v>11800</v>
+      </c>
+      <c r="B226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <v>11805</v>
+      </c>
+      <c r="B227" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <v>11810</v>
+      </c>
+      <c r="B228" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <v>11820</v>
+      </c>
+      <c r="B229" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" s="1">
+        <v>11830</v>
+      </c>
+      <c r="B230" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <v>11840</v>
+      </c>
+      <c r="B231" t="s">
+        <v>232</v>
+      </c>
+      <c r="C231" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <v>11850</v>
+      </c>
+      <c r="B232" t="s">
+        <v>233</v>
+      </c>
+      <c r="C232" s="4">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <v>11860</v>
+      </c>
+      <c r="B233" t="s">
+        <v>234</v>
+      </c>
+      <c r="C233" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <v>11862</v>
+      </c>
+      <c r="B234" t="s">
+        <v>235</v>
+      </c>
+      <c r="C234" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <v>11870</v>
+      </c>
+      <c r="B235" t="s">
+        <v>236</v>
+      </c>
+      <c r="C235" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <v>11880</v>
+      </c>
+      <c r="B236" t="s">
+        <v>237</v>
+      </c>
+      <c r="C236" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <v>11882</v>
+      </c>
+      <c r="B237" t="s">
+        <v>238</v>
+      </c>
+      <c r="C237" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <v>11884</v>
+      </c>
+      <c r="B238" t="s">
+        <v>239</v>
+      </c>
+      <c r="C238" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <v>11886</v>
+      </c>
+      <c r="B239" t="s">
+        <v>240</v>
+      </c>
+      <c r="C239" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <v>11887</v>
+      </c>
+      <c r="B240" t="s">
+        <v>241</v>
+      </c>
+      <c r="C240" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <v>11888</v>
+      </c>
+      <c r="B241" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <v>16002</v>
+      </c>
+      <c r="B242" t="s">
+        <v>243</v>
+      </c>
+      <c r="C242" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" s="1">
+        <v>16004</v>
+      </c>
+      <c r="B243" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <v>16005</v>
+      </c>
+      <c r="B244" t="s">
+        <v>245</v>
+      </c>
+      <c r="C244" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <v>16010</v>
+      </c>
+      <c r="B245" t="s">
+        <v>246</v>
+      </c>
+      <c r="C245" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <v>16015</v>
+      </c>
+      <c r="B246" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" s="1">
+        <v>16016</v>
+      </c>
+      <c r="B247" t="s">
+        <v>248</v>
+      </c>
+      <c r="C247" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" s="1">
+        <v>16020</v>
+      </c>
+      <c r="B248" t="s">
+        <v>249</v>
+      </c>
+      <c r="C248" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" s="1">
+        <v>16030</v>
+      </c>
+      <c r="B249" t="s">
+        <v>250</v>
+      </c>
+      <c r="C249" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" s="1">
+        <v>16035</v>
+      </c>
+      <c r="B250" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250" s="4">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" s="1">
+        <v>16040</v>
+      </c>
+      <c r="B251" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <v>16050</v>
+      </c>
+      <c r="B252" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <v>16060</v>
+      </c>
+      <c r="B253" t="s">
+        <v>254</v>
+      </c>
+      <c r="C253" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <v>17010</v>
+      </c>
+      <c r="B254" t="s">
+        <v>255</v>
+      </c>
+      <c r="C254" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <v>17011</v>
+      </c>
+      <c r="B255" t="s">
+        <v>256</v>
+      </c>
+      <c r="C255" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <v>17012</v>
+      </c>
+      <c r="B256" t="s">
+        <v>257</v>
+      </c>
+      <c r="C256" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <v>17016</v>
+      </c>
+      <c r="B257" t="s">
+        <v>258</v>
+      </c>
+      <c r="C257" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" s="1">
+        <v>17018</v>
+      </c>
+      <c r="B258" t="s">
+        <v>259</v>
+      </c>
+      <c r="C258" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" s="1">
+        <v>17019</v>
+      </c>
+      <c r="B259" t="s">
+        <v>260</v>
+      </c>
+      <c r="C259" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" s="1">
+        <v>17021</v>
+      </c>
+      <c r="B260" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" s="1">
+        <v>17025</v>
+      </c>
+      <c r="B261" t="s">
+        <v>262</v>
+      </c>
+      <c r="C261" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" s="1">
+        <v>17026</v>
+      </c>
+      <c r="B262" t="s">
+        <v>263</v>
+      </c>
+      <c r="C262" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>17027</v>
+      </c>
+      <c r="B263" t="s">
+        <v>264</v>
+      </c>
+      <c r="C263" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>17028</v>
+      </c>
+      <c r="B264" t="s">
+        <v>265</v>
+      </c>
+      <c r="C264" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>17029</v>
+      </c>
+      <c r="B265" t="s">
+        <v>266</v>
+      </c>
+      <c r="C265" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>17030</v>
+      </c>
+      <c r="B266" t="s">
+        <v>267</v>
+      </c>
+      <c r="C266" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>17031</v>
+      </c>
+      <c r="B267" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>17032</v>
+      </c>
+      <c r="B268" t="s">
+        <v>269</v>
+      </c>
+      <c r="C268" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>17033</v>
+      </c>
+      <c r="B269" t="s">
+        <v>270</v>
+      </c>
+      <c r="C269" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>17034</v>
+      </c>
+      <c r="B270" t="s">
+        <v>271</v>
+      </c>
+      <c r="C270" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>17035</v>
+      </c>
+      <c r="B271" t="s">
+        <v>272</v>
+      </c>
+      <c r="C271" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>17036</v>
+      </c>
+      <c r="B272" t="s">
+        <v>273</v>
+      </c>
+      <c r="C272" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>17037</v>
+      </c>
+      <c r="B273" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>17038</v>
+      </c>
+      <c r="B274" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>17039</v>
+      </c>
+      <c r="B275" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" s="4">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>17040</v>
+      </c>
+      <c r="B276" t="s">
+        <v>277</v>
+      </c>
+      <c r="C276" s="4">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>17045</v>
+      </c>
+      <c r="B277" t="s">
+        <v>278</v>
+      </c>
+      <c r="C277" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>17050</v>
+      </c>
+      <c r="B278" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>17060</v>
+      </c>
+      <c r="B279" t="s">
+        <v>280</v>
+      </c>
+      <c r="C279" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>17070</v>
+      </c>
+      <c r="B280" t="s">
+        <v>281</v>
+      </c>
+      <c r="C280" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>17076</v>
+      </c>
+      <c r="B281" t="s">
+        <v>282</v>
+      </c>
+      <c r="C281" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>17080</v>
+      </c>
+      <c r="B282" t="s">
+        <v>283</v>
+      </c>
+      <c r="C282" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>17081</v>
+      </c>
+      <c r="B283" t="s">
+        <v>284</v>
+      </c>
+      <c r="C283" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>17082</v>
+      </c>
+      <c r="B284" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>17085</v>
+      </c>
+      <c r="B285" t="s">
+        <v>286</v>
+      </c>
+      <c r="C285" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>17088</v>
+      </c>
+      <c r="B286" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>17090</v>
+      </c>
+      <c r="B287" t="s">
+        <v>288</v>
+      </c>
+      <c r="C287" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>17100</v>
+      </c>
+      <c r="B288" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>17105</v>
+      </c>
+      <c r="B289" t="s">
+        <v>290</v>
+      </c>
+      <c r="C289" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>17110</v>
+      </c>
+      <c r="B290" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" s="4">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>17130</v>
+      </c>
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>17131</v>
+      </c>
+      <c r="B292" t="s">
+        <v>293</v>
+      </c>
+      <c r="C292" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>17133</v>
+      </c>
+      <c r="B293" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>17134</v>
+      </c>
+      <c r="B294" t="s">
+        <v>294</v>
+      </c>
+      <c r="C294" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>17136</v>
+      </c>
+      <c r="B295" t="s">
+        <v>295</v>
+      </c>
+      <c r="C295" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>17138</v>
+      </c>
+      <c r="B296" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296" s="4">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>17140</v>
+      </c>
+      <c r="B297" t="s">
+        <v>297</v>
+      </c>
+      <c r="C297" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>17142</v>
+      </c>
+      <c r="B298" t="s">
+        <v>298</v>
+      </c>
+      <c r="C298" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>17145</v>
+      </c>
+      <c r="B299" t="s">
+        <v>299</v>
+      </c>
+      <c r="C299" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>17150</v>
+      </c>
+      <c r="B300" t="s">
+        <v>300</v>
+      </c>
+      <c r="C300" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>17151</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>17152</v>
+      </c>
+      <c r="B302" t="s">
+        <v>302</v>
+      </c>
+      <c r="C302" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>17160</v>
+      </c>
+      <c r="B303" t="s">
+        <v>303</v>
+      </c>
+      <c r="C303" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>17161</v>
+      </c>
+      <c r="B304" t="s">
+        <v>304</v>
+      </c>
+      <c r="C304" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>17162</v>
+      </c>
+      <c r="B305" t="s">
+        <v>305</v>
+      </c>
+      <c r="C305" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>17165</v>
+      </c>
+      <c r="B306" t="s">
+        <v>306</v>
+      </c>
+      <c r="C306" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>17170</v>
+      </c>
+      <c r="B307" t="s">
+        <v>307</v>
+      </c>
+      <c r="C307" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>17180</v>
+      </c>
+      <c r="B308" t="s">
+        <v>308</v>
+      </c>
+      <c r="C308" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>17190</v>
+      </c>
+      <c r="B309" t="s">
+        <v>309</v>
+      </c>
+      <c r="C309" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>17200</v>
+      </c>
+      <c r="B310" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>17220</v>
+      </c>
+      <c r="B311" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311" s="4">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>17230</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>17231</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>17250</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>17255</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>17260</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>17262</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+      <c r="C317" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>17270</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+      <c r="C318" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>17280</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>17302</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320" s="4">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>17304</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>17305</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+      <c r="C322" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>17310</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>17313</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" s="4">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>17315</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+      <c r="C325" s="4">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>17320</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+      <c r="C326" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>17325</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+      <c r="C327" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>17342</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+      <c r="C328" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>17346</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+      <c r="C329" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>17350</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+      <c r="C330" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>17350</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+      <c r="C331" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>17352</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+      <c r="C332" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>17354</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>17358</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+      <c r="C334" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>17360</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+      <c r="C335" s="4">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>17362</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+      <c r="C336" s="4">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>17364</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>17366</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+      <c r="C338" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>17368</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+      <c r="C339" s="4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>17382</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+      <c r="C340" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>17412</v>
+      </c>
+      <c r="B341" t="s">
+        <v>341</v>
+      </c>
+      <c r="C341" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>17434</v>
+      </c>
+      <c r="B342" t="s">
+        <v>342</v>
+      </c>
+      <c r="C342" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>17438</v>
+      </c>
+      <c r="B343" t="s">
+        <v>343</v>
+      </c>
+      <c r="C343" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>17455</v>
+      </c>
+      <c r="B344" t="s">
+        <v>344</v>
+      </c>
+      <c r="C344" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>17475</v>
+      </c>
+      <c r="B345" t="s">
+        <v>345</v>
+      </c>
+      <c r="C345" s="4">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>17492</v>
+      </c>
+      <c r="B346" t="s">
+        <v>346</v>
+      </c>
+      <c r="C346" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>18889</v>
+      </c>
+      <c r="B347" t="s">
+        <v>347</v>
+      </c>
+      <c r="C347" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>18892</v>
+      </c>
+      <c r="B348" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B349" t="s">
+        <v>349</v>
+      </c>
+      <c r="C349" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B350" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>20005</v>
+      </c>
+      <c r="B351" t="s">
+        <v>351</v>
+      </c>
+      <c r="C351" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>20010</v>
+      </c>
+      <c r="B352" t="s">
+        <v>352</v>
+      </c>
+      <c r="C352" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>20015</v>
+      </c>
+      <c r="B353" t="s">
+        <v>353</v>
+      </c>
+      <c r="C353" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>20020</v>
+      </c>
+      <c r="B354" t="s">
+        <v>354</v>
+      </c>
+      <c r="C354" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>20025</v>
+      </c>
+      <c r="B355" t="s">
+        <v>355</v>
+      </c>
+      <c r="C355" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>20030</v>
+      </c>
+      <c r="B356" t="s">
+        <v>356</v>
+      </c>
+      <c r="C356" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>20035</v>
+      </c>
+      <c r="B357" t="s">
+        <v>357</v>
+      </c>
+      <c r="C357" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <v>20036</v>
+      </c>
+      <c r="B358" t="s">
+        <v>358</v>
+      </c>
+      <c r="C358" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <v>20037</v>
+      </c>
+      <c r="B359" t="s">
+        <v>359</v>
+      </c>
+      <c r="C359" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <v>20038</v>
+      </c>
+      <c r="B360" t="s">
+        <v>360</v>
+      </c>
+      <c r="C360" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <v>20039</v>
+      </c>
+      <c r="B361" t="s">
+        <v>361</v>
+      </c>
+      <c r="C361" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <v>20040</v>
+      </c>
+      <c r="B362" t="s">
+        <v>362</v>
+      </c>
+      <c r="C362" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <v>20045</v>
+      </c>
+      <c r="B363" t="s">
+        <v>363</v>
+      </c>
+      <c r="C363" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <v>20046</v>
+      </c>
+      <c r="B364" t="s">
+        <v>364</v>
+      </c>
+      <c r="C364" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <v>20047</v>
+      </c>
+      <c r="B365" t="s">
+        <v>365</v>
+      </c>
+      <c r="C365" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <v>20050</v>
+      </c>
+      <c r="B366" t="s">
+        <v>366</v>
+      </c>
+      <c r="C366" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <v>20055</v>
+      </c>
+      <c r="B367" t="s">
+        <v>367</v>
+      </c>
+      <c r="C367" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <v>20060</v>
+      </c>
+      <c r="B368" t="s">
+        <v>368</v>
+      </c>
+      <c r="C368" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" s="1">
+        <v>20061</v>
+      </c>
+      <c r="B369" t="s">
+        <v>369</v>
+      </c>
+      <c r="C369" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <v>20065</v>
+      </c>
+      <c r="B370" t="s">
+        <v>370</v>
+      </c>
+      <c r="C370" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" s="1">
+        <v>20095</v>
+      </c>
+      <c r="B371" t="s">
+        <v>371</v>
+      </c>
+      <c r="C371" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <v>20100</v>
+      </c>
+      <c r="B372" t="s">
+        <v>372</v>
+      </c>
+      <c r="C372" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" s="1">
+        <v>21000</v>
+      </c>
+      <c r="B373" t="s">
+        <v>373</v>
+      </c>
+      <c r="C373" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <v>21005</v>
+      </c>
+      <c r="B374" t="s">
+        <v>374</v>
+      </c>
+      <c r="C374" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <v>21010</v>
+      </c>
+      <c r="B375" t="s">
+        <v>375</v>
+      </c>
+      <c r="C375" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <v>21015</v>
+      </c>
+      <c r="B376" t="s">
+        <v>376</v>
+      </c>
+      <c r="C376" s="4">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <v>21018</v>
+      </c>
+      <c r="B377" t="s">
+        <v>377</v>
+      </c>
+      <c r="C377" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <v>21019</v>
+      </c>
+      <c r="B378" t="s">
+        <v>378</v>
+      </c>
+      <c r="C378" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <v>21020</v>
+      </c>
+      <c r="B379" t="s">
+        <v>379</v>
+      </c>
+      <c r="C379" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <v>21025</v>
+      </c>
+      <c r="B380" t="s">
+        <v>380</v>
+      </c>
+      <c r="C380" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <v>21030</v>
+      </c>
+      <c r="B381" t="s">
+        <v>381</v>
+      </c>
+      <c r="C381" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" s="1">
+        <v>21035</v>
+      </c>
+      <c r="B382" t="s">
+        <v>382</v>
+      </c>
+      <c r="C382" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <v>21040</v>
+      </c>
+      <c r="B383" t="s">
+        <v>383</v>
+      </c>
+      <c r="C383" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" s="1">
+        <v>21045</v>
+      </c>
+      <c r="B384" t="s">
+        <v>384</v>
+      </c>
+      <c r="C384" s="4">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" s="1">
+        <v>21050</v>
+      </c>
+      <c r="B385" t="s">
+        <v>385</v>
+      </c>
+      <c r="C385" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <v>21055</v>
+      </c>
+      <c r="B386" t="s">
+        <v>386</v>
+      </c>
+      <c r="C386" s="4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <v>21060</v>
+      </c>
+      <c r="B387" t="s">
+        <v>387</v>
+      </c>
+      <c r="C387" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <v>21065</v>
+      </c>
+      <c r="B388" t="s">
+        <v>388</v>
+      </c>
+      <c r="C388" s="4">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <v>21070</v>
+      </c>
+      <c r="B389" t="s">
+        <v>389</v>
+      </c>
+      <c r="C389" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Lists/Job_list.xlsx
+++ b/Lists/Job_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coral\Documents\Universidad_2\Articulos\1. Articulo metodologia matlab code LTPAQ\LTPAQ_MATLAB_code\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDFB68A-E3A7-457F-8130-939D1CA955BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE738B8-3D2C-4CB4-9B5C-D75BDF9EB172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5E1112A5-35B4-4BB2-957C-5EE8D223495B}"/>
   </bookViews>
@@ -1625,15 +1625,15 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="85.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="141.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
